--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2425515.333496653</v>
+        <v>2534157.494799464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9221091.067479519</v>
+        <v>9226584.713467935</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.43995086960471</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.26846764653501</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.56161733020297</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.5814128248125</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>232.4266580430901</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>8.968939146346861</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>166.0703497351812</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.96403506289333</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>214.34112641274</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>135.4371632022862</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>58.22830993197798</v>
       </c>
       <c r="F10" t="n">
-        <v>98.11258468995908</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>67.60860312451744</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>8.616048582069491</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>36.86080948088116</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>175.9612165073977</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.05052491174621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>18.49605685438785</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>60.11729550773727</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>237.6564710034615</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>100.9410961977599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>201.2773066778185</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>106.3048907942291</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>65.78783178799263</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>73.78417491007316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>176.76214411214</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>30.40549967255499</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>22.6126310577748</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>211.8835657758636</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>4.019807611472022</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>134.5665975534137</v>
+        <v>16.09765778288691</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656512</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2084.871465656512</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.32755894284</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.543024838023</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1156.744478155107</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C4" t="n">
-        <v>987.8082952271998</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>987.8082952271998</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>987.8082952271998</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>987.8082952271998</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>987.8082952271998</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>987.8082952271998</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.710580560017</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2076.592243063854</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>2076.592243063854</v>
+        <v>891.4387837682095</v>
       </c>
       <c r="W4" t="n">
-        <v>1787.175073026894</v>
+        <v>602.021613731249</v>
       </c>
       <c r="X4" t="n">
-        <v>1559.185522128876</v>
+        <v>602.021613731249</v>
       </c>
       <c r="Y4" t="n">
-        <v>1338.392942985346</v>
+        <v>602.021613731249</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854573</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450455</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D5" t="n">
-        <v>359.3403385450455</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>359.3403385450455</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>352.3948377958421</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2344.53415251472</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1991.765497244606</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1991.765497244606</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1991.765497244606</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.7199774115529</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9721493962184</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962184</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485136</v>
+        <v>952.1923605134823</v>
       </c>
       <c r="W7" t="n">
-        <v>535.7199774115529</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="X7" t="n">
-        <v>535.7199774115529</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.7199774115529</v>
+        <v>662.7751904765217</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2345.833140104457</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2345.833140104457</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>1993.064484834343</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>1619.598726573263</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1229.459394597451</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>560.139411173514</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>854.8429682049855</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164205</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2184.354406119405</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2431.537139951702</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2546.853055059248</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1586012949289</v>
+        <v>699.731003034914</v>
       </c>
       <c r="C10" t="n">
-        <v>409.1586012949289</v>
+        <v>530.7948201070071</v>
       </c>
       <c r="D10" t="n">
-        <v>409.1586012949289</v>
+        <v>530.7948201070071</v>
       </c>
       <c r="E10" t="n">
-        <v>409.1586012949289</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251686</v>
+        <v>699.731003034914</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251686</v>
+        <v>699.731003034914</v>
       </c>
     </row>
     <row r="11">
@@ -5027,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,19 +5123,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2311.62586152507</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2092.024396548011</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1802.949169892209</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1548.264681686322</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1258.847511649361</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W19" t="n">
         <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3044.370838283061</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C22" t="n">
-        <v>3044.370838283061</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D22" t="n">
-        <v>2894.254198870726</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>4630.108611481688</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>4447.253777136592</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.978318053498</v>
+        <v>4227.652312159534</v>
       </c>
       <c r="U22" t="n">
-        <v>4218.903091397696</v>
+        <v>4227.652312159534</v>
       </c>
       <c r="V22" t="n">
-        <v>3964.218603191809</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="W22" t="n">
-        <v>3674.801433154848</v>
+        <v>3972.967823953647</v>
       </c>
       <c r="X22" t="n">
-        <v>3446.811882256831</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>3226.019303113301</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797272</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3045.561952449533</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C28" t="n">
-        <v>3045.561952449533</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>2895.445313037197</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807137</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
         <v>2337.686731866304</v>
@@ -6406,28 +6408,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>3911.80034623246</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>3622.383176195499</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>3394.393625297482</v>
       </c>
       <c r="Y28" t="n">
-        <v>3227.210417279773</v>
+        <v>3173.601046153952</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>551.263652184387</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>551.263652184387</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2389.334518447046</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>2884.660124662805</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>3482.038612289356</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6889,19 +6891,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576781</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7250,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560546</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>3312.538429711218</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>4607.527188264241</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>4387.925723287182</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>4098.85049663138</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>3844.166008425494</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>3554.748838388533</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>3326.759287490515</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>3105.966708346985</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363237</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>84.94186588374646</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.58048154590022</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>113.4176828771271</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.9994244361429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>249.323664908363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.870763674539631</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>127.9379057921813</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>6.25795120238439</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>14.48117232036645</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.49286644880927</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>50.86033664600953</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>42.31058222398323</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>79.63321623493862</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>74.83129810813919</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>149.4264805093823</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>6.701087576231231</v>
       </c>
     </row>
     <row r="41">
@@ -25789,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>144.5956654067403</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>46.45968844823085</v>
+        <v>164.9286282187577</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>806615.1652677997</v>
+        <v>812557.0927688705</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448201</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.37164482</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
@@ -26335,25 +26337,25 @@
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.7268316249</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
-      <c r="C4" t="n">
-        <v>131909.7268316249</v>
-      </c>
       <c r="D4" t="n">
-        <v>86084.45926805864</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
@@ -26454,10 +26456,10 @@
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.9112025693</v>
+        <v>-703291.91120257</v>
       </c>
       <c r="C6" t="n">
-        <v>411459.8723733503</v>
+        <v>411459.8723733504</v>
       </c>
       <c r="D6" t="n">
-        <v>249661.8313750298</v>
+        <v>411459.8723733509</v>
       </c>
       <c r="E6" t="n">
-        <v>192106.1986317852</v>
+        <v>10033.21881459416</v>
       </c>
       <c r="F6" t="n">
-        <v>517518.6604391404</v>
+        <v>517518.6604391403</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391404</v>
+        <v>517518.6604391405</v>
       </c>
       <c r="H6" t="n">
-        <v>517518.6604391404</v>
+        <v>517518.6604391403</v>
       </c>
       <c r="I6" t="n">
-        <v>517518.6604391404</v>
+        <v>517518.6604391403</v>
       </c>
       <c r="J6" t="n">
         <v>349913.4826291581</v>
       </c>
       <c r="K6" t="n">
+        <v>517518.6604391405</v>
+      </c>
+      <c r="L6" t="n">
         <v>517518.6604391402</v>
       </c>
-      <c r="L6" t="n">
-        <v>469224.6904309498</v>
-      </c>
       <c r="M6" t="n">
-        <v>432463.6325036287</v>
+        <v>384911.3667102136</v>
       </c>
       <c r="N6" t="n">
         <v>517518.6604391403</v>
       </c>
       <c r="O6" t="n">
-        <v>517518.6604391404</v>
+        <v>517518.6604391403</v>
       </c>
       <c r="P6" t="n">
-        <v>517518.6604391406</v>
+        <v>517518.6604391403</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2938907938758</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.9694710095186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>94.2349778736976</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>21.55623049901547</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>179.1210447298639</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>318.783319323788</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>1.176471363446637</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.1736082609347</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>36.70412371572198</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>234.2939374761828</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>88.2056527145912</v>
       </c>
       <c r="F10" t="n">
-        <v>47.30846333297217</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29527,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>687.544841654958</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,28 +33025,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>146.0225991093083</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34211,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178164</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,13 +34450,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313201</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>622.4553810291977</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>451.873198165787</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034435029</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>556.2031295716247</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>481.5356082478342</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>8.181160134949316</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,16 +37861,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344831</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2534157.494799464</v>
+        <v>2530020.337549313</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.43995086960471</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>207.510364013387</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>103.5546456481094</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>230.5814128248125</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.4578531051053</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>8.968939146346861</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.96403506289333</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>50.94845023432666</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>57.74751945339559</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>214.34112641274</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>58.22830993197798</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>67.60860312451744</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>186.9015203136212</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>36.86080948088116</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>175.9612165073977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.11729550773727</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>237.6564710034615</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>140.1230996349833</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>201.2773066778185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>106.3048907942291</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>131.2944603446578</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>176.76214411214</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.40549967255499</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10107535865899</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>211.8835657758636</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>115.7228684476123</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4312223122543</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>16.09765778288691</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.8970375929177</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872916</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>2019.2880512361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>575.6256845144198</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>870.3292415458916</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>602.021613731249</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1531.84546790469</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1531.84546790469</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="V4" t="n">
-        <v>891.4387837682095</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="W4" t="n">
-        <v>602.021613731249</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X4" t="n">
-        <v>602.021613731249</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y4" t="n">
-        <v>602.021613731249</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.165657180484</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>736.6224273402283</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>350.8341747419841</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>343.8886739927806</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>332.2243277574736</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2344.53415251472</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1991.765497244606</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1991.765497244606</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1991.765497244606</v>
+        <v>736.6224273402283</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>662.7751904765217</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765217</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
@@ -4725,52 +4725,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>952.1923605134823</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>662.7751904765217</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>662.7751904765217</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.7751904765217</v>
+        <v>812.8918298888576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.8595545333294</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C8" t="n">
-        <v>473.8970375929177</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>532.2278653236203</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>525.2823645744169</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>109.5776142987057</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>109.5776142987057</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2345.833140104457</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2345.833140104457</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.064484834343</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1619.598726573263</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.459394597451</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.139411173514</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049855</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1852.283970943244</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>2184.354406119405</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2431.537139951702</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.853055059248</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.731003034914</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>530.7948201070071</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>530.7948201070071</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282415</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>927.7205539329314</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>927.7205539329314</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>699.731003034914</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.731003034914</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2311.62586152507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2092.024396548011</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.949169892209</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.264681686322</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.847511649361</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.857960751344</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.0653816078141</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,19 +5296,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5518,46 +5518,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>214.9229991561132</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>710.248605371872</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4630.108611481688</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4447.253777136592</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4227.652312159534</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4227.652312159534</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.967823953647</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797272</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1667.930277414127</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1378.513107377167</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1150.523556479149</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356194</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3173.601046153952</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>3911.80034623246</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>3622.383176195499</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>3394.393625297482</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>3173.601046153952</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.6442739835331</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>956.9553291057244</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2924.318243516745</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>2924.318243516745</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>2774.20160410441</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>2626.288510522017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4607.527188264241</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4387.925723287182</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>4098.85049663138</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>3844.166008425494</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>3554.748838388533</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>3326.759287490515</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>3105.966708346985</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>154.0169020165189</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363237</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>84.94186588374646</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>36.58048154590022</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4176828771271</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>31.68313303847356</v>
       </c>
     </row>
     <row r="14">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>249.323664908363</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.870763674539631</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.25795120238439</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>14.48117232036645</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>50.86033664600953</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.31058222398323</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>86.11098998263051</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.4264805093823</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.701087576231231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>28.00274033431484</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>164.9286282187577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>69.70496293143174</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448202</v>
-      </c>
       <c r="E2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
@@ -26343,19 +26343,19 @@
         <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26426,34 +26426,34 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707425</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.91120257</v>
+        <v>-703291.9112025691</v>
       </c>
       <c r="C6" t="n">
         <v>411459.8723733504</v>
       </c>
       <c r="D6" t="n">
-        <v>411459.8723733509</v>
+        <v>411459.8723733504</v>
       </c>
       <c r="E6" t="n">
-        <v>10033.21881459416</v>
+        <v>9685.839560237258</v>
       </c>
       <c r="F6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847833</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391405</v>
+        <v>517171.2811847831</v>
       </c>
       <c r="H6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="I6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847831</v>
       </c>
       <c r="J6" t="n">
-        <v>349913.4826291581</v>
+        <v>349566.1033748009</v>
       </c>
       <c r="K6" t="n">
-        <v>517518.6604391405</v>
+        <v>517171.2811847835</v>
       </c>
       <c r="L6" t="n">
-        <v>517518.6604391402</v>
+        <v>517171.2811847831</v>
       </c>
       <c r="M6" t="n">
-        <v>384911.3667102136</v>
+        <v>384563.9874558565</v>
       </c>
       <c r="N6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847834</v>
       </c>
       <c r="O6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.2811847833</v>
       </c>
       <c r="P6" t="n">
-        <v>517518.6604391403</v>
+        <v>517171.281184783</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2938907938758</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>178.7275746426666</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>91.10781471362802</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>21.55623049901547</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>88.5606994573001</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>318.783319323788</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>157.1736082609347</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>167.6362031177681</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>7.962393219074904</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>36.70412371572198</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>88.2056527145912</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31536,7 +31536,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31606,22 +31606,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31688,10 +31688,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31706,13 +31706,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>522.1224556861829</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>687.544841654958</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>260.171071406825</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>308.1572428165614</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>424.0909547148531</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34453,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34707,7 +34707,7 @@
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>340.6043982600038</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291977</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.873198165787</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35184,7 +35184,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560633</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,19 +35263,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000385</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>504.1681401741873</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>15.64270034435029</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35339,7 +35339,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35348,7 +35348,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>379.5262112417385</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2031295716247</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35901,7 +35901,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>122.329632432466</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>281.4947102704086</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2530020.337549313</v>
+        <v>2531780.867852099</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>198.9430992003371</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>207.510364013387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>35.88064825126382</v>
       </c>
       <c r="S4" t="n">
-        <v>103.5546456481094</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>371.9132837742267</v>
       </c>
       <c r="H5" t="n">
-        <v>212.4578531051053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>38.07814032777054</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.94845023432666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>277.3642941863579</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>57.74751945339559</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188693977</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9015203136212</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>80.67842139643643</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.1230996349833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>18.50276072357057</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>131.2944603446578</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.10107535865899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>41.74133133758716</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.4312223122543</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>216.4795114578124</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1632.688211171978</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y2" t="n">
-        <v>2019.2880512361</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>575.6256845144198</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>870.3292415458916</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1600.203041032816</v>
       </c>
       <c r="S4" t="n">
-        <v>1531.84546790469</v>
+        <v>1403.574293192677</v>
       </c>
       <c r="T4" t="n">
-        <v>1531.84546790469</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="U4" t="n">
-        <v>1242.727130408528</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="V4" t="n">
-        <v>1242.727130408528</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="W4" t="n">
-        <v>1242.727130408528</v>
+        <v>1180.595812387413</v>
       </c>
       <c r="X4" t="n">
-        <v>1014.73757951051</v>
+        <v>952.6062614893956</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>736.6224273402283</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C5" t="n">
-        <v>736.6224273402283</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="D5" t="n">
-        <v>736.6224273402283</v>
+        <v>1141.96181897037</v>
       </c>
       <c r="E5" t="n">
-        <v>350.8341747419841</v>
+        <v>1141.96181897037</v>
       </c>
       <c r="F5" t="n">
-        <v>343.8886739927806</v>
+        <v>730.9759141807629</v>
       </c>
       <c r="G5" t="n">
-        <v>332.2243277574736</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.76175931604</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>736.6224273402283</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
         <v>1218.104987164206</v>
@@ -4664,7 +4664,7 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>812.8918298888576</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.8918298888576</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218646</v>
+        <v>350.0225872761075</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218646</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218646</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E8" t="n">
-        <v>532.2278653236203</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>525.2823645744169</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>109.5776142987057</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>109.5776142987057</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218646</v>
+        <v>736.6224273402293</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,34 +4880,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,16 +5117,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
         <v>1577.52840832642</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5287,19 +5287,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516692</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.3100179938673</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>604.4387941280856</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>154.0169020165189</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.454437538930335</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.37549921168807</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.68313303847356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0.5874149221290992</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>126.9182872993607</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>86.11098998263051</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>125.5054897610407</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>28.00274033431484</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>69.70496293143174</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478794</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448203</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707411</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.9112025691</v>
+        <v>-703291.911202569</v>
       </c>
       <c r="C6" t="n">
-        <v>411459.8723733504</v>
+        <v>411459.8723733501</v>
       </c>
       <c r="D6" t="n">
-        <v>411459.8723733504</v>
+        <v>411459.8723733506</v>
       </c>
       <c r="E6" t="n">
-        <v>9685.839560237258</v>
+        <v>9998.48088915908</v>
       </c>
       <c r="F6" t="n">
-        <v>517171.2811847833</v>
+        <v>517483.9225137049</v>
       </c>
       <c r="G6" t="n">
-        <v>517171.2811847831</v>
+        <v>517483.9225137048</v>
       </c>
       <c r="H6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="I6" t="n">
-        <v>517171.2811847831</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="J6" t="n">
-        <v>349566.1033748009</v>
+        <v>349878.744703722</v>
       </c>
       <c r="K6" t="n">
-        <v>517171.2811847835</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="L6" t="n">
-        <v>517171.2811847831</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="M6" t="n">
-        <v>384563.9874558565</v>
+        <v>384876.6287847782</v>
       </c>
       <c r="N6" t="n">
-        <v>517171.2811847834</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="O6" t="n">
-        <v>517171.2811847833</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="P6" t="n">
-        <v>517171.281184783</v>
+        <v>517483.9225137045</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7.715085779896668</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.7275746426666</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>65.67692416830981</v>
       </c>
       <c r="S4" t="n">
-        <v>91.10781471362802</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>39.63441899872731</v>
       </c>
       <c r="H5" t="n">
-        <v>88.5606994573001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>187.6315150612666</v>
       </c>
       <c r="Y7" t="n">
-        <v>167.6362031177681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>87.90859758464967</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>7.962393219074904</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,7 +31849,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>650.2626573149953</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>308.1572428165614</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>340.6043982600038</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>341.8791195350533</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>504.1681401741873</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,7 +35497,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>508.128623392977</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>165.5609983721169</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37323,13 +37323,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
